--- a/panels/final_spreadsheets/panels_data_entry_spreadsheet_marinegeo.xlsx
+++ b/panels/final_spreadsheets/panels_data_entry_spreadsheet_marinegeo.xlsx
@@ -256,16 +256,16 @@
     <t xml:space="preserve">species_list_notes</t>
   </si>
   <si>
-    <t xml:space="preserve">temperature_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature, measured with a probe or sonde, in degrees Celsius</t>
-  </si>
-  <si>
     <t xml:space="preserve">topdown_photos_notes</t>
   </si>
   <si>
     <t xml:space="preserve">topdown photos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wet_weight_g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The total wet mass of the entire community that was scrapped off of the panel</t>
   </si>
 </sst>
 </file>
@@ -1312,15 +1312,15 @@
         <v>71</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
@@ -1328,15 +1328,15 @@
         <v>73</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -1387,13 +1387,12 @@
     <col min="8" max="8" width="13.71" hidden="0" customWidth="1"/>
     <col min="9" max="9" width="16.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="17.71" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="13.71" hidden="0" customWidth="1"/>
-    <col min="12" max="12" width="12.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="15.71" hidden="0" customWidth="1"/>
-    <col min="14" max="14" width="16.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="21.71" hidden="0" customWidth="1"/>
-    <col min="16" max="16" width="23.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="19.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="12.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="15.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="16.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="21.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="23.71" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="19.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1428,24 +1427,21 @@
         <v>23</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1480,7 +1476,7 @@
         <v>49</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1534,7 +1530,8 @@
     <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="8.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="19.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="12.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1548,6 +1545,9 @@
         <v>36</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>32</v>
       </c>
     </row>

--- a/panels/final_spreadsheets/panels_data_entry_spreadsheet_marinegeo.xlsx
+++ b/panels/final_spreadsheets/panels_data_entry_spreadsheet_marinegeo.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>definition</t>
   </si>
@@ -100,6 +100,27 @@
     <t xml:space="preserve">site metadata, topdown photos, 3D photos, eDNA, species list</t>
   </si>
   <si>
+    <t xml:space="preserve">community_wet_weight_g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The total wet mass of the entire community that was scrapped off of the panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eDNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">container_and_community_weight_g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The total weight of the community sample and the container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">container_weight_g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The weight of the container prior to adding the sample</t>
+  </si>
+  <si>
     <t xml:space="preserve">decimal_latitude</t>
   </si>
   <si>
@@ -142,9 +163,6 @@
     <t xml:space="preserve">eDNA_notes</t>
   </si>
   <si>
-    <t xml:space="preserve">eDNA</t>
-  </si>
-  <si>
     <t xml:space="preserve">identification_notes</t>
   </si>
   <si>
@@ -260,12 +278,6 @@
   </si>
   <si>
     <t xml:space="preserve">topdown photos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wet_weight_g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The total wet mass of the entire community that was scrapped off of the panel</t>
   </si>
 </sst>
 </file>
@@ -927,38 +939,34 @@
       <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>17</v>
@@ -966,23 +974,25 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -993,36 +1003,38 @@
         <v>31</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>13</v>
@@ -1030,15 +1042,15 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>13</v>
@@ -1046,15 +1058,15 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>13</v>
@@ -1062,7 +1074,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -1070,7 +1082,7 @@
         <v>40</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>13</v>
@@ -1078,7 +1090,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -1094,7 +1106,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -1110,7 +1122,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -1126,15 +1138,15 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>13</v>
@@ -1142,15 +1154,15 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>13</v>
@@ -1158,31 +1170,31 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>13</v>
@@ -1190,7 +1202,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23">
@@ -1206,7 +1218,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -1217,12 +1229,12 @@
         <v>61</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -1238,7 +1250,7 @@
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
@@ -1254,7 +1266,7 @@
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -1267,20 +1279,18 @@
       <c r="C27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>68</v>
-      </c>
+      <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>13</v>
@@ -1288,7 +1298,7 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
@@ -1296,7 +1306,7 @@
         <v>70</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>13</v>
@@ -1304,48 +1314,82 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="A32" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1397,52 +1441,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>60</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1470,13 +1514,13 @@
         <v>15</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1504,10 +1548,10 @@
         <v>15</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>11</v>
@@ -1530,8 +1574,10 @@
     <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="8.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="19.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="12.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="10.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="18.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="32.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="22.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1539,16 +1585,22 @@
         <v>15</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1579,22 +1631,22 @@
         <v>15</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/panels/final_spreadsheets/panels_data_entry_spreadsheet_marinegeo.xlsx
+++ b/panels/final_spreadsheets/panels_data_entry_spreadsheet_marinegeo.xlsx
@@ -11,14 +11,15 @@
     <sheet name="topdown photos" sheetId="4" state="visible" r:id="rId3"/>
     <sheet name="3D photos" sheetId="5" state="visible" r:id="rId4"/>
     <sheet name="eDNA" sheetId="6" state="visible" r:id="rId5"/>
-    <sheet name="species list" sheetId="7" state="visible" r:id="rId6"/>
+    <sheet name="wet mass" sheetId="7" state="visible" r:id="rId6"/>
+    <sheet name="species list" sheetId="8" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>definition</t>
   </si>
@@ -73,7 +74,7 @@
     <t xml:space="preserve">PANELS</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
+    <t xml:space="preserve">V2</t>
   </si>
   <si>
     <t xml:space="preserve">3d_photos_notes</t>
@@ -97,7 +98,7 @@
     <t xml:space="preserve">numeric</t>
   </si>
   <si>
-    <t xml:space="preserve">site metadata, topdown photos, 3D photos, eDNA, species list</t>
+    <t xml:space="preserve">site metadata, topdown photos, 3D photos, eDNA, wet mass, species list</t>
   </si>
   <si>
     <t xml:space="preserve">community_wet_weight_g</t>
@@ -106,63 +107,66 @@
     <t xml:space="preserve">The total wet mass of the entire community that was scrapped off of the panel</t>
   </si>
   <si>
+    <t xml:space="preserve">wet mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">container_and_community_weight_g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The total weight of the community sample and the container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">container_weight_g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The weight of the container prior to adding the sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal_latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latitude of the site location, in decimal degrees (to five decimal places)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xx.xxxxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site metadata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal_longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitude of the site location, in decimal degrees (to five decimal places)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxx.xxxxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dissolved_oxygen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dissolved oxygen measured by a sonde or probe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dissolved_oxygen_method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method used to measure salinity, such as "YSI probe"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dissolved_oxygen_unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit associated with dissolved oxygen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eDNA_notes</t>
+  </si>
+  <si>
     <t xml:space="preserve">eDNA</t>
   </si>
   <si>
-    <t xml:space="preserve">container_and_community_weight_g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The total weight of the community sample and the container</t>
-  </si>
-  <si>
-    <t xml:space="preserve">container_weight_g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The weight of the container prior to adding the sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal_latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latitude of the site location, in decimal degrees (to five decimal places)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xx.xxxxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site metadata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal_longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitude of the site location, in decimal degrees (to five decimal places)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xxx.xxxxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dissolved_oxygen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dissolved oxygen measured by a sonde or probe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dissolved_oxygen_method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method used to measure salinity, such as "YSI probe"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dissolved_oxygen_unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit associated with dissolved oxygen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eDNA_notes</t>
-  </si>
-  <si>
     <t xml:space="preserve">identification_notes</t>
   </si>
   <si>
@@ -205,7 +209,7 @@
     <t xml:space="preserve">A unique ID assigned to each panel with the format "year_site-code_age_replicate" (ex. 2021_USA-MDA_30d_01)</t>
   </si>
   <si>
-    <t xml:space="preserve">topdown photos, 3D photos, eDNA, species list</t>
+    <t xml:space="preserve">topdown photos, 3D photos, eDNA, wet mass, species list</t>
   </si>
   <si>
     <t xml:space="preserve">photo_filename</t>
@@ -241,18 +245,27 @@
     <t xml:space="preserve">The day the sample was retrieved from the field</t>
   </si>
   <si>
+    <t xml:space="preserve">DD</t>
+  </si>
+  <si>
     <t xml:space="preserve">sample_retrieval_month</t>
   </si>
   <si>
     <t xml:space="preserve">The month the sample was retrieved from the field</t>
   </si>
   <si>
+    <t xml:space="preserve">MM</t>
+  </si>
+  <si>
     <t xml:space="preserve">sample_retrieval_year</t>
   </si>
   <si>
     <t xml:space="preserve">The year the sample was retrieved from the field</t>
   </si>
   <si>
+    <t xml:space="preserve">YYYY</t>
+  </si>
+  <si>
     <t xml:space="preserve">scientific_name</t>
   </si>
   <si>
@@ -278,6 +291,9 @@
   </si>
   <si>
     <t xml:space="preserve">topdown photos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wet_mass_notes</t>
   </si>
 </sst>
 </file>
@@ -374,7 +390,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -411,6 +427,11 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -452,7 +473,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1074,12 +1095,12 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>12</v>
@@ -1090,15 +1111,15 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>13</v>
@@ -1106,15 +1127,15 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>13</v>
@@ -1127,10 +1148,10 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>13</v>
@@ -1143,10 +1164,10 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>13</v>
@@ -1159,10 +1180,10 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>13</v>
@@ -1175,10 +1196,10 @@
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>13</v>
@@ -1186,15 +1207,15 @@
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>13</v>
@@ -1202,15 +1223,15 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>13</v>
@@ -1223,10 +1244,10 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>17</v>
@@ -1239,10 +1260,10 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>13</v>
@@ -1250,20 +1271,22 @@
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10" t="s">
         <v>29</v>
@@ -1271,15 +1294,17 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10" t="s">
         <v>29</v>
@@ -1287,15 +1312,17 @@
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10" t="s">
         <v>29</v>
@@ -1303,10 +1330,10 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>13</v>
@@ -1314,21 +1341,21 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10" t="s">
@@ -1337,7 +1364,7 @@
     </row>
     <row r="31">
       <c r="A31" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>12</v>
@@ -1353,7 +1380,7 @@
     </row>
     <row r="32">
       <c r="A32" s="10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>12</v>
@@ -1364,12 +1391,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>12</v>
@@ -1380,16 +1407,32 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="A34" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1441,25 +1484,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>66</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>15</v>
@@ -1471,10 +1514,10 @@
         <v>30</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>33</v>
@@ -1486,7 +1529,7 @@
         <v>35</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1514,13 +1557,13 @@
         <v>15</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1548,10 +1591,10 @@
         <v>15</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>11</v>
@@ -1574,10 +1617,7 @@
     <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="8.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="19.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="18.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="32.71" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="22.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="10.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1585,21 +1625,12 @@
         <v>15</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1610,6 +1641,48 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="8.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="18.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="32.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="22.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="14.71" hidden="0" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1631,22 +1704,22 @@
         <v>15</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/panels/final_spreadsheets/panels_data_entry_spreadsheet_marinegeo.xlsx
+++ b/panels/final_spreadsheets/panels_data_entry_spreadsheet_marinegeo.xlsx
@@ -206,7 +206,7 @@
     <t xml:space="preserve">panel_id</t>
   </si>
   <si>
-    <t xml:space="preserve">A unique ID assigned to each panel with the format "year_site-code_age_replicate" (ex. 2021_USA-MDA_30d_01)</t>
+    <t xml:space="preserve">A unique ID assigned to each panel with the format "year_site-code_age_replicate" (ex. 2021_USA-MDA_30d_01). Type "control" as the panel ID on the eDNA sheet for samples without a panel ID</t>
   </si>
   <si>
     <t xml:space="preserve">topdown photos, 3D photos, eDNA, wet mass, species list</t>

--- a/panels/final_spreadsheets/panels_data_entry_spreadsheet_marinegeo.xlsx
+++ b/panels/final_spreadsheets/panels_data_entry_spreadsheet_marinegeo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>definition</t>
   </si>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">PANELS</t>
   </si>
   <si>
-    <t xml:space="preserve">V2</t>
+    <t xml:space="preserve">V2.1</t>
   </si>
   <si>
     <t xml:space="preserve">3d_photos_notes</t>
@@ -185,6 +185,12 @@
     <t xml:space="preserve">The range of numbers associated with the images taken for generating the 3D model. See the protocol for more information.</t>
   </si>
   <si>
+    <t xml:space="preserve">location_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name of the specific location where the sample was collected; e.g., Curlew Cay</t>
+  </si>
+  <si>
     <t xml:space="preserve">panel_deployment_day</t>
   </si>
   <si>
@@ -206,7 +212,7 @@
     <t xml:space="preserve">panel_id</t>
   </si>
   <si>
-    <t xml:space="preserve">A unique ID assigned to each panel with the format "year_site-code_age_replicate" (ex. 2021_USA-MDA_30d_01). Type "control" as the panel ID on the eDNA sheet for samples without a panel ID</t>
+    <t xml:space="preserve">A unique ID assigned to each panel with the format "year_site-code_age_replicate" (ex. 2021_USA-MDA_30d_01). Type "control" as the panel ID on the eDNA sheet for samples without a panel ID. If you have deployments at multiple locations, include a unique location abbreviation after the site code (year_site-code-location_age_replicate) and indicate the full location name in the "location_name" column of the site metadata sheet.</t>
   </si>
   <si>
     <t xml:space="preserve">topdown photos, 3D photos, eDNA, wet mass, species list</t>
@@ -1207,15 +1213,15 @@
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>13</v>
@@ -1223,15 +1229,15 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>13</v>
@@ -1239,7 +1245,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
@@ -1250,7 +1256,7 @@
         <v>62</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -1266,12 +1272,12 @@
         <v>64</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -1282,28 +1288,26 @@
         <v>66</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>67</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10" t="s">
@@ -1312,16 +1316,16 @@
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10" t="s">
@@ -1330,18 +1334,20 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -1354,25 +1360,25 @@
       <c r="C30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>78</v>
-      </c>
+      <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="C31" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10" t="s">
         <v>29</v>
@@ -1380,7 +1386,7 @@
     </row>
     <row r="32">
       <c r="A32" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>12</v>
@@ -1391,12 +1397,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>12</v>
@@ -1407,7 +1413,7 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
@@ -1423,16 +1429,32 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+    <row r="36">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1465,71 +1487,75 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="9.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="21.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="22.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="20.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="21.71" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="22.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="20.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="13.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="16.71" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="17.71" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="12.71" hidden="0" customWidth="1"/>
-    <col min="12" max="12" width="15.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="16.71" hidden="0" customWidth="1"/>
-    <col min="14" max="14" width="21.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="23.71" hidden="0" customWidth="1"/>
-    <col min="16" max="16" width="19.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="21.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="22.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="20.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="21.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="22.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="20.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="13.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="16.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="17.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="12.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="15.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="16.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="21.71" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="23.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="19.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>71</v>
-      </c>
       <c r="F1" s="12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="12" t="s">
-        <v>79</v>
+      <c r="Q1" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1557,13 +1583,13 @@
         <v>15</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1591,7 +1617,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>45</v>
@@ -1625,7 +1651,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>43</v>
@@ -1661,7 +1687,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>24</v>
@@ -1673,7 +1699,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1704,22 +1730,22 @@
         <v>15</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>41</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/panels/final_spreadsheets/panels_data_entry_spreadsheet_marinegeo.xlsx
+++ b/panels/final_spreadsheets/panels_data_entry_spreadsheet_marinegeo.xlsx
@@ -74,7 +74,7 @@
     <t xml:space="preserve">PANELS</t>
   </si>
   <si>
-    <t xml:space="preserve">V2.1</t>
+    <t xml:space="preserve">DOI: V2.1</t>
   </si>
   <si>
     <t xml:space="preserve">3d_photos_notes</t>
